--- a/Assets/format/karyawan.xlsx
+++ b/Assets/format/karyawan.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Kepegawaian\Assets\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B3158B-9295-47F1-937D-1C3B213F0380}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E299266C-9900-4894-9B70-ABD7280BBE03}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{703549F7-F45A-4F9D-98FA-BAC6B84C8DC6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{703549F7-F45A-4F9D-98FA-BAC6B84C8DC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>nik</t>
   </si>
@@ -52,9 +51,6 @@
   </si>
   <si>
     <t>jenis kelamin</t>
-  </si>
-  <si>
-    <t>jabatan</t>
   </si>
   <si>
     <t>status</t>
@@ -416,26 +412,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE519F37-BBD4-4FB0-AEBB-511CDE68B749}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -454,16 +450,13 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
       </c>
       <c r="J1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
